--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BDE/20/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BDE/20/seed4/result_data_KNN.xlsx
@@ -542,7 +542,7 @@
         <v>-8.08</v>
       </c>
       <c r="E6" t="n">
-        <v>16.52</v>
+        <v>16.386</v>
       </c>
     </row>
     <row r="7">
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.364</v>
+        <v>-7.505</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -584,7 +584,7 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>5.7</v>
+        <v>5.680999999999999</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.168000000000001</v>
+        <v>-7.542</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -652,7 +652,7 @@
         <v>-22.15</v>
       </c>
       <c r="B13" t="n">
-        <v>6.186</v>
+        <v>5.302999999999999</v>
       </c>
       <c r="C13" t="n">
         <v>-15.83</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.603999999999999</v>
+        <v>-7.778</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.036</v>
+        <v>15.94</v>
       </c>
     </row>
     <row r="16">
@@ -703,7 +703,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>5.064</v>
+        <v>4.974</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>5.396</v>
+        <v>5.236</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.65</v>
+        <v>-7.851999999999999</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>7.138</v>
+        <v>7.162999999999999</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -873,13 +873,13 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>6.15</v>
+        <v>5.444000000000001</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.638</v>
+        <v>-7.798</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -890,13 +890,13 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.364</v>
+        <v>6.090000000000001</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-7.989999999999999</v>
+        <v>-8.086000000000002</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -916,7 +916,7 @@
         <v>-7.75</v>
       </c>
       <c r="E28" t="n">
-        <v>16.658</v>
+        <v>17.099</v>
       </c>
     </row>
     <row r="29">
@@ -924,13 +924,13 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.215999999999999</v>
+        <v>5.673</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.182</v>
+        <v>-7.452000000000001</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -1001,7 +1001,7 @@
         <v>-6.63</v>
       </c>
       <c r="E33" t="n">
-        <v>17.132</v>
+        <v>17.213</v>
       </c>
     </row>
     <row r="34">
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.931999999999999</v>
+        <v>8.439</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.542</v>
+        <v>16.517</v>
       </c>
     </row>
     <row r="36">
@@ -1043,7 +1043,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>7.952</v>
+        <v>7.923</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-8</v>
+        <v>-7.822</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1083,10 +1083,10 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-6.836</v>
+        <v>-7.258</v>
       </c>
       <c r="E38" t="n">
-        <v>16.474</v>
+        <v>16.792</v>
       </c>
     </row>
     <row r="39">
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.268</v>
+        <v>17.127</v>
       </c>
     </row>
     <row r="44">
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.798</v>
+        <v>16.93</v>
       </c>
     </row>
     <row r="45">
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>5.97</v>
+        <v>5.895999999999999</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1205,7 +1205,7 @@
         <v>-7.87</v>
       </c>
       <c r="E45" t="n">
-        <v>16.804</v>
+        <v>17.058</v>
       </c>
     </row>
     <row r="46">
@@ -1236,10 +1236,10 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.394</v>
+        <v>-7.480999999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>16.804</v>
+        <v>16.984</v>
       </c>
     </row>
     <row r="48">
@@ -1304,10 +1304,10 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.888</v>
+        <v>-8.575000000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>16.36</v>
+        <v>16.616</v>
       </c>
     </row>
     <row r="52">
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.982000000000001</v>
+        <v>-7.874000000000001</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1358,7 +1358,7 @@
         <v>-8.01</v>
       </c>
       <c r="E54" t="n">
-        <v>16.734</v>
+        <v>16.47</v>
       </c>
     </row>
     <row r="55">
@@ -1366,13 +1366,13 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.638</v>
+        <v>5.185</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-7.864</v>
+        <v>-7.943000000000001</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.88</v>
+        <v>5.327999999999999</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.474</v>
+        <v>16.641</v>
       </c>
     </row>
     <row r="58">
@@ -1494,7 +1494,7 @@
         <v>-8.5</v>
       </c>
       <c r="E62" t="n">
-        <v>16.526</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="63">
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>17.732</v>
+        <v>17.471</v>
       </c>
     </row>
     <row r="64">
@@ -1579,7 +1579,7 @@
         <v>-6.43</v>
       </c>
       <c r="E67" t="n">
-        <v>16.678</v>
+        <v>16.887</v>
       </c>
     </row>
     <row r="68">
@@ -1604,13 +1604,13 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>6.825999999999999</v>
+        <v>5.581</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.210000000000001</v>
+        <v>-7.325999999999999</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1627,10 +1627,10 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-6.928</v>
+        <v>-7.449</v>
       </c>
       <c r="E70" t="n">
-        <v>18.3</v>
+        <v>17.468</v>
       </c>
     </row>
     <row r="71">
@@ -1723,13 +1723,13 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>7.112</v>
+        <v>6.495</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.390000000000001</v>
+        <v>-7.839</v>
       </c>
       <c r="E76" t="n">
         <v>16.38</v>
@@ -1757,7 +1757,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>8.321999999999999</v>
+        <v>8.550999999999998</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1814,10 +1814,10 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.768000000000001</v>
+        <v>-7.785000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>16.944</v>
+        <v>17.015</v>
       </c>
     </row>
     <row r="82">
@@ -1825,7 +1825,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>6.018</v>
+        <v>5.289</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1842,13 +1842,13 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>4.906000000000001</v>
+        <v>5.129</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-9.156000000000001</v>
+        <v>-8.516999999999999</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -1936,7 +1936,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>16.516</v>
+        <v>16.327</v>
       </c>
     </row>
     <row r="89">
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>5.722</v>
+        <v>6.130999999999999</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2035,7 +2035,7 @@
         <v>-10.65</v>
       </c>
       <c r="D94" t="n">
-        <v>-7.415999999999999</v>
+        <v>-7.456</v>
       </c>
       <c r="E94" t="n">
         <v>17.92</v>
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>16.436</v>
+        <v>16.783</v>
       </c>
     </row>
     <row r="97">
@@ -2080,7 +2080,7 @@
         <v>-21.32</v>
       </c>
       <c r="B97" t="n">
-        <v>5.416</v>
+        <v>5.632</v>
       </c>
       <c r="C97" t="n">
         <v>-13.93</v>
@@ -2123,7 +2123,7 @@
         <v>-7.98</v>
       </c>
       <c r="E99" t="n">
-        <v>16.264</v>
+        <v>16.553</v>
       </c>
     </row>
     <row r="100">
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.513999999999999</v>
+        <v>-8.276999999999999</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.76</v>
+        <v>-7.865</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
